--- a/animalMate/src/db/tradeboard.xlsx
+++ b/animalMate/src/db/tradeboard.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\animalMate\animalMate\src\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C784C-9191-4FE5-9724-44FF1305F752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
   <si>
     <t>STATUS</t>
   </si>
@@ -118,9 +127,6 @@
     <t>ETIME</t>
   </si>
   <si>
-    <t>WTIME</t>
-  </si>
-  <si>
     <t>id3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,17 +191,6 @@
   </si>
   <si>
     <t>제목20</t>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation</t>
   </si>
   <si>
     <t>귀여운 내새끼 돌봐주세요</t>
@@ -279,14 +274,6 @@
     <t>TTYPE</t>
   </si>
   <si>
-    <t>owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,14 +288,40 @@
   <si>
     <t>상세주소상세주소상세주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌봐주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌봐줄게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDATE</t>
+  </si>
+  <si>
+    <t>EDATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -368,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,10 +397,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,6 +421,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -447,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,9 +505,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +765,7 @@
     <col min="10" max="10" width="15.5" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -735,116 +794,125 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>20201001</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9">
+        <v>44105</v>
+      </c>
+      <c r="F2" s="2">
         <v>5000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="9">
+        <v>44106</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44107</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2">
-        <v>20201002</v>
-      </c>
-      <c r="J2" s="2">
-        <v>20201003</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
+      <c r="O2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>20201002</v>
+        <v>35</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44106</v>
       </c>
       <c r="F3" s="2">
         <v>6000</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44107</v>
+      </c>
+      <c r="J3" s="9">
+        <v>44108</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="2">
-        <v>20201003</v>
-      </c>
-      <c r="J3" s="2">
-        <v>20201004</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>67</v>
+      <c r="O3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -854,42 +922,45 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20201003</v>
+        <v>36</v>
+      </c>
+      <c r="E4" s="9">
+        <v>44107</v>
       </c>
       <c r="F4" s="2">
         <v>7000</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44108</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44109</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="2">
-        <v>20201004</v>
-      </c>
-      <c r="J4" s="2">
-        <v>20201005</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>67</v>
+      <c r="O4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -899,42 +970,45 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20201004</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44108</v>
       </c>
       <c r="F5" s="2">
         <v>8000</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44109</v>
+      </c>
+      <c r="J5" s="9">
+        <v>44110</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="2">
-        <v>20201005</v>
-      </c>
-      <c r="J5" s="2">
-        <v>20201006</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>67</v>
+      <c r="O5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -944,41 +1018,44 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20201005</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="9">
+        <v>44109</v>
       </c>
       <c r="F6" s="2">
         <v>9000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="2">
-        <v>20201006</v>
-      </c>
-      <c r="J6" s="2">
-        <v>20201007</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I6" s="9">
+        <v>44110</v>
+      </c>
+      <c r="J6" s="9">
+        <v>44111</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.625</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -988,41 +1065,44 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20201006</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="9">
+        <v>44110</v>
       </c>
       <c r="F7" s="2">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9">
+        <v>44111</v>
+      </c>
+      <c r="J7" s="9">
+        <v>44112</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="2">
-        <v>20201007</v>
-      </c>
-      <c r="J7" s="2">
-        <v>20201008</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>67</v>
+      <c r="O7" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1032,41 +1112,44 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20201007</v>
+        <v>40</v>
+      </c>
+      <c r="E8" s="9">
+        <v>44111</v>
       </c>
       <c r="F8" s="2">
         <v>11000</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="9">
+        <v>44112</v>
+      </c>
+      <c r="J8" s="9">
+        <v>44113</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="2">
-        <v>20201008</v>
-      </c>
-      <c r="J8" s="2">
-        <v>20201009</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>67</v>
+      <c r="O8" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1076,41 +1159,44 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2">
-        <v>20201008</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="9">
+        <v>44112</v>
       </c>
       <c r="F9" s="2">
         <v>12000</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="9">
+        <v>44113</v>
+      </c>
+      <c r="J9" s="9">
+        <v>44114</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="2">
-        <v>20201009</v>
-      </c>
-      <c r="J9" s="2">
-        <v>20201010</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>67</v>
+      <c r="O9" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1120,41 +1206,44 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20201009</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="9">
+        <v>44113</v>
       </c>
       <c r="F10" s="2">
         <v>13000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="2">
-        <v>20201010</v>
-      </c>
-      <c r="J10" s="2">
-        <v>20201011</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9">
+        <v>44114</v>
+      </c>
+      <c r="J10" s="9">
+        <v>44115</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.79166666666666596</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1164,41 +1253,44 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20201010</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="9">
+        <v>44114</v>
       </c>
       <c r="F11" s="2">
         <v>14000</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44115</v>
+      </c>
+      <c r="J11" s="9">
+        <v>44116</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="2">
-        <v>20201011</v>
-      </c>
-      <c r="J11" s="2">
-        <v>20201012</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>67</v>
+      <c r="O11" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1208,41 +1300,44 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20201011</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="9">
+        <v>44115</v>
       </c>
       <c r="F12" s="2">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="2">
-        <v>20201012</v>
-      </c>
-      <c r="J12" s="2">
-        <v>20201013</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44116</v>
+      </c>
+      <c r="J12" s="9">
+        <v>44117</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.875</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1252,41 +1347,44 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2">
-        <v>20201012</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="9">
+        <v>44116</v>
       </c>
       <c r="F13" s="2">
         <v>16000</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44117</v>
+      </c>
+      <c r="J13" s="9">
+        <v>44118</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="2">
-        <v>20201013</v>
-      </c>
-      <c r="J13" s="2">
-        <v>20201014</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>67</v>
+      <c r="O13" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1296,41 +1394,44 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2">
-        <v>20201013</v>
+        <v>46</v>
+      </c>
+      <c r="E14" s="9">
+        <v>44117</v>
       </c>
       <c r="F14" s="2">
         <v>17000</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="9">
+        <v>44118</v>
+      </c>
+      <c r="J14" s="9">
+        <v>44119</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="2">
-        <v>20201014</v>
-      </c>
-      <c r="J14" s="2">
-        <v>20201015</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>67</v>
+      <c r="O14" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1340,41 +1441,44 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2">
-        <v>20201014</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="9">
+        <v>44118</v>
       </c>
       <c r="F15" s="2">
         <v>18000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="2">
-        <v>20201015</v>
-      </c>
-      <c r="J15" s="2">
-        <v>20201016</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I15" s="9">
+        <v>44119</v>
+      </c>
+      <c r="J15" s="9">
+        <v>44120</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1384,41 +1488,44 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2">
-        <v>20201015</v>
+        <v>48</v>
+      </c>
+      <c r="E16" s="9">
+        <v>44119</v>
       </c>
       <c r="F16" s="2">
         <v>19000</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44120</v>
+      </c>
+      <c r="J16" s="9">
+        <v>44121</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="2">
-        <v>20201016</v>
-      </c>
-      <c r="J16" s="2">
-        <v>20201017</v>
-      </c>
-      <c r="K16" s="2">
-        <v>3</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="O16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1428,41 +1535,44 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2">
-        <v>20201016</v>
+        <v>49</v>
+      </c>
+      <c r="E17" s="9">
+        <v>44120</v>
       </c>
       <c r="F17" s="2">
         <v>20000</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44121</v>
+      </c>
+      <c r="J17" s="9">
+        <v>44122</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="2">
-        <v>20201017</v>
-      </c>
-      <c r="J17" s="2">
-        <v>20201018</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="O17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1472,41 +1582,44 @@
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2">
-        <v>20201017</v>
+        <v>50</v>
+      </c>
+      <c r="E18" s="9">
+        <v>44121</v>
       </c>
       <c r="F18" s="2">
         <v>21000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="2">
-        <v>20201018</v>
-      </c>
-      <c r="J18" s="2">
-        <v>20201019</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44122</v>
+      </c>
+      <c r="J18" s="9">
+        <v>44123</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1.125</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19">
+        <v>59</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1516,41 +1629,44 @@
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20201018</v>
+        <v>51</v>
+      </c>
+      <c r="E19" s="9">
+        <v>44122</v>
       </c>
       <c r="F19" s="2">
         <v>22000</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9">
+        <v>44123</v>
+      </c>
+      <c r="J19" s="9">
+        <v>44124</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1.125</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="2">
-        <v>20201019</v>
-      </c>
-      <c r="J19" s="2">
-        <v>20201020</v>
-      </c>
-      <c r="K19" s="2">
-        <v>3</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="O19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1560,41 +1676,44 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20201019</v>
+        <v>52</v>
+      </c>
+      <c r="E20" s="9">
+        <v>44123</v>
       </c>
       <c r="F20" s="2">
         <v>23000</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9">
+        <v>44124</v>
+      </c>
+      <c r="J20" s="9">
+        <v>44125</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="2">
-        <v>20201020</v>
-      </c>
-      <c r="J20" s="2">
-        <v>20201021</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="O20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1604,55 +1723,44 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="2">
-        <v>20201020</v>
+        <v>53</v>
+      </c>
+      <c r="E21" s="9">
+        <v>44124</v>
       </c>
       <c r="F21" s="2">
         <v>24000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="2">
-        <v>20201021</v>
-      </c>
-      <c r="J21" s="2">
-        <v>20201022</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44125</v>
+      </c>
+      <c r="J21" s="9">
+        <v>44126</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1.25</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1662,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1675,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/animalMate/src/db/tradeboard.xlsx
+++ b/animalMate/src/db/tradeboard.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\animalMate\animalMate\src\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EB9784-A997-46A9-889B-9A2C7CB9DC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">sheet1!#ref!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,94 +32,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
   <si>
-    <t xml:space="preserve">CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귀여운 내새끼 돌봐주세요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거래종료</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌봐주세요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상세주소상세주소상세주소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귀여운 내새끼 산책시켜주세요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거래완료</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌봐줄게요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목3</t>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>BUYER</t>
+  </si>
+  <si>
+    <t>SELLER</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>TTIME</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>COMM</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SDATE</t>
+  </si>
+  <si>
+    <t>EDATE</t>
+  </si>
+  <si>
+    <t>STIME</t>
+  </si>
+  <si>
+    <t>ETIME</t>
+  </si>
+  <si>
+    <t>TTYPE</t>
+  </si>
+  <si>
+    <t>LOCATION1</t>
+  </si>
+  <si>
+    <t>LOCATION2</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>제목1</t>
+  </si>
+  <si>
+    <t>귀여운 내새끼 돌봐주세요</t>
+  </si>
+  <si>
+    <t>거래종료</t>
+  </si>
+  <si>
+    <t>돌봐주세요</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>상세주소상세주소상세주소</t>
+  </si>
+  <si>
+    <t>제목2</t>
+  </si>
+  <si>
+    <t>귀여운 내새끼 산책시켜주세요</t>
+  </si>
+  <si>
+    <t>거래완료</t>
+  </si>
+  <si>
+    <t>경산</t>
+  </si>
+  <si>
+    <t>id3</t>
+  </si>
+  <si>
+    <t>제목3</t>
   </si>
   <si>
     <r>
@@ -125,7 +127,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">귀여운</t>
+      <t>귀여운</t>
     </r>
     <r>
       <rPr>
@@ -145,7 +147,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">내새끼</t>
+      <t>내새끼</t>
     </r>
     <r>
       <rPr>
@@ -165,7 +167,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">하루만</t>
+      <t>하루만</t>
     </r>
     <r>
       <rPr>
@@ -185,156 +187,138 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">맡아주세요</t>
+      <t>맡아주세요</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">포항</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">예약가능</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거래대기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제목20</t>
+    <t>포항</t>
+  </si>
+  <si>
+    <t>id4</t>
+  </si>
+  <si>
+    <t>제목4</t>
+  </si>
+  <si>
+    <t>id5</t>
+  </si>
+  <si>
+    <t>제목5</t>
+  </si>
+  <si>
+    <t>id6</t>
+  </si>
+  <si>
+    <t>id7</t>
+  </si>
+  <si>
+    <t>제목6</t>
+  </si>
+  <si>
+    <t>예약가능</t>
+  </si>
+  <si>
+    <t>id8</t>
+  </si>
+  <si>
+    <t>제목7</t>
+  </si>
+  <si>
+    <t>id9</t>
+  </si>
+  <si>
+    <t>제목8</t>
+  </si>
+  <si>
+    <t>거래대기</t>
+  </si>
+  <si>
+    <t>id10</t>
+  </si>
+  <si>
+    <t>제목9</t>
+  </si>
+  <si>
+    <t>id11</t>
+  </si>
+  <si>
+    <t>제목10</t>
+  </si>
+  <si>
+    <t>제목11</t>
+  </si>
+  <si>
+    <t>id12</t>
+  </si>
+  <si>
+    <t>제목12</t>
+  </si>
+  <si>
+    <t>id13</t>
+  </si>
+  <si>
+    <t>제목13</t>
+  </si>
+  <si>
+    <t>id14</t>
+  </si>
+  <si>
+    <t>제목14</t>
+  </si>
+  <si>
+    <t>id15</t>
+  </si>
+  <si>
+    <t>제목15</t>
+  </si>
+  <si>
+    <t>id16</t>
+  </si>
+  <si>
+    <t>제목16</t>
+  </si>
+  <si>
+    <t>id17</t>
+  </si>
+  <si>
+    <t>제목17</t>
+  </si>
+  <si>
+    <t>id18</t>
+  </si>
+  <si>
+    <t>제목18</t>
+  </si>
+  <si>
+    <t>id19</t>
+  </si>
+  <si>
+    <t>제목19</t>
+  </si>
+  <si>
+    <t>id20</t>
+  </si>
+  <si>
+    <t>제목20</t>
+  </si>
+  <si>
+    <t>돌봐줄게요</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yy\-m\-d\ h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="h:mm"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yy\-m\-d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="129"/>
     </font>
     <font>
@@ -358,6 +342,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,7 +358,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -376,73 +366,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -501,36 +460,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.5"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,8 +845,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -590,10 +858,10 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>44105</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -602,17 +870,17 @@
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>44106</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="3">
         <v>44107</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.458333333333333</v>
+      <c r="K2" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.45833333333333298</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>20</v>
@@ -624,8 +892,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -637,10 +905,10 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>44106</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>6000</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -649,94 +917,94 @@
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>44107</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="3">
         <v>44108</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="K3" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.5</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44107</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7000</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>44107</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>44108</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>44109</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="4">
         <v>0.5</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.541666666666667</v>
+      <c r="L4" s="4">
+        <v>0.54166666666666696</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
         <v>44108</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>8000</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -745,20 +1013,20 @@
       <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>44109</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>44110</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.583333333333333</v>
+      <c r="K5" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.58333333333333304</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>21</v>
@@ -768,23 +1036,23 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3">
         <v>44109</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>9000</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -793,92 +1061,92 @@
       <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>44110</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="3">
         <v>44111</v>
       </c>
-      <c r="K6" s="4" t="n">
-        <v>0.583333333333334</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="K6" s="4">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.625</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3">
+        <v>44110</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>44110</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>44111</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="3">
         <v>44112</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="4">
         <v>0.625</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>0.666666666666666</v>
+      <c r="L7" s="4">
+        <v>0.66666666666666596</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>44111</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>11000</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -887,17 +1155,17 @@
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>44112</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>44113</v>
       </c>
-      <c r="K8" s="4" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.708333333333333</v>
+      <c r="K8" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.70833333333333304</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>20</v>
@@ -909,117 +1177,117 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>44112</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>12000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44113</v>
+      </c>
+      <c r="J9" s="3">
+        <v>44114</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3">
         <v>44113</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="F10" s="2">
+        <v>13000</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3">
         <v>44114</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L9" s="4" t="n">
+      <c r="J10" s="3">
+        <v>44115</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.75</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="L10" s="4">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>44113</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3" t="n">
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3">
         <v>44114</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>44115</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.791666666666666</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>44114</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>14000</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1028,17 +1296,17 @@
       <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>44115</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>44116</v>
       </c>
-      <c r="K11" s="4" t="n">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>0.833333333333333</v>
+      <c r="K11" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.83333333333333304</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>20</v>
@@ -1050,117 +1318,117 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3">
         <v>44115</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3">
         <v>44116</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="3">
         <v>44117</v>
       </c>
-      <c r="K12" s="4" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L12" s="4" t="n">
+      <c r="K12" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L12" s="4">
         <v>0.875</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
         <v>44116</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>16000</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3">
         <v>44117</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>44118</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="4">
         <v>0.875</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>0.916666666666667</v>
+      <c r="L13" s="4">
+        <v>0.91666666666666696</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>44117</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>17000</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1169,17 +1437,17 @@
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>44118</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="3">
         <v>44119</v>
       </c>
-      <c r="K14" s="4" t="n">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>0.958333333333333</v>
+      <c r="K14" s="4">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.95833333333333304</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>20</v>
@@ -1191,117 +1459,117 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>44118</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>18000</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I15" s="3">
         <v>44119</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="3">
         <v>44120</v>
       </c>
-      <c r="K15" s="4" t="n">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="L15" s="4" t="n">
+      <c r="K15" s="4">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>44119</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2">
         <v>19000</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3">
         <v>44120</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="3">
         <v>44121</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>1.04166666666667</v>
+      <c r="L16" s="4">
+        <v>1.0416666666666701</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>44120</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>20000</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1310,17 +1578,17 @@
       <c r="H17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>44121</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="3">
         <v>44122</v>
       </c>
-      <c r="K17" s="4" t="n">
-        <v>1.04166666666667</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>1.08333333333333</v>
+      <c r="K17" s="4">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1.0833333333333299</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>20</v>
@@ -1332,117 +1600,117 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>44121</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>21000</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3">
         <v>44122</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="3">
         <v>44123</v>
       </c>
-      <c r="K18" s="4" t="n">
-        <v>1.08333333333333</v>
-      </c>
-      <c r="L18" s="4" t="n">
+      <c r="K18" s="4">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="L18" s="4">
         <v>1.125</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>44122</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>22000</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I19" s="3">
         <v>44123</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="3">
         <v>44124</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="4">
         <v>1.125</v>
       </c>
-      <c r="L19" s="4" t="n">
-        <v>1.16666666666667</v>
+      <c r="L19" s="4">
+        <v>1.1666666666666701</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>44123</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>23000</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1451,17 +1719,17 @@
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>44124</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="3">
         <v>44125</v>
       </c>
-      <c r="K20" s="4" t="n">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="L20" s="4" t="n">
-        <v>1.20833333333333</v>
+      <c r="K20" s="4">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1.2083333333333299</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>20</v>
@@ -1473,109 +1741,87 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>44124</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>24000</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I21" s="3">
         <v>44125</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="3">
         <v>44126</v>
       </c>
-      <c r="K21" s="4" t="n">
-        <v>1.20833333333333</v>
-      </c>
-      <c r="L21" s="4" t="n">
+      <c r="K21" s="4">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="L21" s="4">
         <v>1.25</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/animalMate/src/db/tradeboard.xlsx
+++ b/animalMate/src/db/tradeboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\animalMate\animalMate\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EB9784-A997-46A9-889B-9A2C7CB9DC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F2519-0046-4A0A-B18D-87AF288B608F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
   <si>
     <t>CODE</t>
   </si>
@@ -89,9 +89,6 @@
     <t>귀여운 내새끼 돌봐주세요</t>
   </si>
   <si>
-    <t>거래종료</t>
-  </si>
-  <si>
     <t>돌봐주세요</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>귀여운 내새끼 산책시켜주세요</t>
-  </si>
-  <si>
-    <t>거래완료</t>
   </si>
   <si>
     <t>경산</t>
@@ -215,9 +209,6 @@
     <t>제목6</t>
   </si>
   <si>
-    <t>예약가능</t>
-  </si>
-  <si>
     <t>id8</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>제목8</t>
   </si>
   <si>
-    <t>거래대기</t>
-  </si>
-  <si>
     <t>id10</t>
   </si>
   <si>
@@ -303,6 +291,26 @@
   </si>
   <si>
     <t>돌봐줄게요</t>
+  </si>
+  <si>
+    <t>거래 미정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 대상 확정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금 후</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려인 미확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -781,7 +789,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -789,6 +797,7 @@
     <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="16.375" customWidth="1"/>
@@ -868,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3">
         <v>44106</v>
@@ -883,13 +892,13 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -903,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3">
         <v>44106</v>
@@ -912,10 +921,10 @@
         <v>6000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3">
         <v>44107</v>
@@ -930,13 +939,13 @@
         <v>0.5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="5"/>
     </row>
@@ -945,13 +954,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>44107</v>
@@ -960,10 +969,10 @@
         <v>7000</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3">
         <v>44108</v>
@@ -978,13 +987,13 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="7"/>
     </row>
@@ -993,13 +1002,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>44108</v>
@@ -1011,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I5" s="3">
         <v>44109</v>
@@ -1026,13 +1035,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
@@ -1041,13 +1050,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3">
         <v>44109</v>
@@ -1056,10 +1065,10 @@
         <v>9000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I6" s="3">
         <v>44110</v>
@@ -1074,13 +1083,13 @@
         <v>0.625</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1088,13 +1097,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>44110</v>
@@ -1103,10 +1112,10 @@
         <v>10000</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I7" s="3">
         <v>44111</v>
@@ -1121,13 +1130,13 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1135,13 +1144,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>44111</v>
@@ -1153,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I8" s="3">
         <v>44112</v>
@@ -1168,13 +1177,13 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="3">
         <v>44112</v>
@@ -1197,10 +1206,10 @@
         <v>12000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3">
         <v>44113</v>
@@ -1215,13 +1224,13 @@
         <v>0.75</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1229,13 +1238,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>44113</v>
@@ -1244,10 +1253,10 @@
         <v>13000</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="I10" s="3">
         <v>44114</v>
@@ -1262,13 +1271,13 @@
         <v>0.79166666666666596</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1276,13 +1285,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <v>44114</v>
@@ -1294,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I11" s="3">
         <v>44115</v>
@@ -1309,13 +1318,13 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,13 +1332,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3">
         <v>44115</v>
@@ -1338,10 +1347,10 @@
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3">
         <v>44116</v>
@@ -1356,13 +1365,13 @@
         <v>0.875</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,13 +1379,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3">
         <v>44116</v>
@@ -1385,10 +1394,10 @@
         <v>16000</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="I13" s="3">
         <v>44117</v>
@@ -1403,13 +1412,13 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,13 +1426,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3">
         <v>44117</v>
@@ -1435,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I14" s="3">
         <v>44118</v>
@@ -1450,13 +1459,13 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,13 +1473,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>44118</v>
@@ -1479,10 +1488,10 @@
         <v>18000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I15" s="3">
         <v>44119</v>
@@ -1497,13 +1506,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,13 +1520,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3">
         <v>44119</v>
@@ -1526,10 +1535,10 @@
         <v>19000</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="I16" s="3">
         <v>44120</v>
@@ -1544,13 +1553,13 @@
         <v>1.0416666666666701</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1558,13 +1567,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3">
         <v>44120</v>
@@ -1576,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I17" s="3">
         <v>44121</v>
@@ -1591,13 +1600,13 @@
         <v>1.0833333333333299</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1605,13 +1614,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3">
         <v>44121</v>
@@ -1620,10 +1629,10 @@
         <v>21000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I18" s="3">
         <v>44122</v>
@@ -1638,13 +1647,13 @@
         <v>1.125</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1652,13 +1661,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3">
         <v>44122</v>
@@ -1667,10 +1676,10 @@
         <v>22000</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="I19" s="3">
         <v>44123</v>
@@ -1685,13 +1694,13 @@
         <v>1.1666666666666701</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1699,13 +1708,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3">
         <v>44123</v>
@@ -1717,7 +1726,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I20" s="3">
         <v>44124</v>
@@ -1732,13 +1741,13 @@
         <v>1.2083333333333299</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1746,13 +1755,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3">
         <v>44124</v>
@@ -1761,10 +1770,10 @@
         <v>24000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I21" s="3">
         <v>44125</v>
@@ -1779,13 +1788,13 @@
         <v>1.25</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
